--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97149B18-8081-4F67-8625-273FDCBC5F89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C402935A-A178-43C6-A93A-C6C6D0EF1A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="14">
   <si>
     <t>[root]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,13 +407,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -477,25 +480,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C5">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D5">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E5">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F5">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G5">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H5">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -526,25 +529,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>1.1000000000000001</v>
+        <v>1593522111</v>
       </c>
       <c r="C8">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D8">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E8">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F8">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G8">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H8">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -575,25 +578,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C11">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D11">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E11">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F11">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G11">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H11">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -624,25 +627,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>1.1000000000000001</v>
+        <v>1593522111</v>
       </c>
       <c r="C14">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D14">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E14">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F14">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G14">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H14">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -673,25 +676,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C17">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D17">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E17">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F17">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G17">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H17">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -722,25 +725,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>1.1000000000000001</v>
+        <v>1593522111</v>
       </c>
       <c r="C20">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D20">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E20">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F20">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G20">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H20">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -771,25 +774,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C23">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D23">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E23">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F23">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G23">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H23">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -820,25 +823,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>1.1000000000000001</v>
+        <v>1593522111</v>
       </c>
       <c r="C26">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D26">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E26">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F26">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G26">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H26">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -869,74 +872,59 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C29">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D29">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E29">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F29">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G29">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H29">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" t="s">
-        <v>8</v>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H32">
-        <v>1.1000000000000001</v>
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -967,59 +955,74 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C35">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D35">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E35">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F35">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G35">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H35">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>4</v>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" t="s">
-        <v>13</v>
+      <c r="B38">
+        <v>1593522111</v>
+      </c>
+      <c r="C38">
+        <v>1.2</v>
+      </c>
+      <c r="D38">
+        <v>1.3</v>
+      </c>
+      <c r="E38">
+        <v>1.4</v>
+      </c>
+      <c r="F38">
+        <v>1.5</v>
+      </c>
+      <c r="G38">
+        <v>1.6</v>
+      </c>
+      <c r="H38">
+        <v>1.7</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1050,25 +1053,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C41">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D41">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E41">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F41">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G41">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H41">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1099,25 +1102,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>1.1000000000000001</v>
+        <v>1593522111</v>
       </c>
       <c r="C44">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D44">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E44">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F44">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G44">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H44">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1148,25 +1151,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C47">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D47">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E47">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F47">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G47">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H47">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -1197,25 +1200,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>1.1000000000000001</v>
+        <v>1593522111</v>
       </c>
       <c r="C50">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D50">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E50">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F50">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G50">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H50">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -1246,25 +1249,25 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C53">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D53">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E53">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F53">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G53">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H53">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -1295,25 +1298,25 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56">
-        <v>1.1000000000000001</v>
+        <v>1593522111</v>
       </c>
       <c r="C56">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D56">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E56">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F56">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G56">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H56">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -1344,74 +1347,59 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C59">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D59">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E59">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F59">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G59">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H59">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" t="s">
-        <v>8</v>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B62">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C62">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D62">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E62">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F62">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G62">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H62">
-        <v>1.1000000000000001</v>
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -1442,25 +1430,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C65">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D65">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E65">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F65">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G65">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H65">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -1491,25 +1479,25 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B68">
-        <v>1.1000000000000001</v>
+        <v>1593522111</v>
       </c>
       <c r="C68">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D68">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E68">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F68">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G68">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H68">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -1540,59 +1528,74 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B71">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C71">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D71">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E71">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F71">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G71">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H71">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
       </c>
-      <c r="C73" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" t="s">
-        <v>4</v>
+      <c r="C73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" t="s">
-        <v>13</v>
+      <c r="B74">
+        <v>1593522111</v>
+      </c>
+      <c r="C74">
+        <v>1.2</v>
+      </c>
+      <c r="D74">
+        <v>1.3</v>
+      </c>
+      <c r="E74">
+        <v>1.4</v>
+      </c>
+      <c r="F74">
+        <v>1.5</v>
+      </c>
+      <c r="G74">
+        <v>1.6</v>
+      </c>
+      <c r="H74">
+        <v>1.7</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -1623,25 +1626,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C77">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D77">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E77">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F77">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G77">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H77">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -1672,25 +1675,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80">
-        <v>1.1000000000000001</v>
+        <v>1593522111</v>
       </c>
       <c r="C80">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D80">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E80">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F80">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G80">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H80">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -1721,25 +1724,25 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B83">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C83">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D83">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E83">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F83">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G83">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H83">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -1770,25 +1773,25 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86">
-        <v>1.1000000000000001</v>
+        <v>1593522111</v>
       </c>
       <c r="C86">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D86">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E86">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F86">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G86">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H86">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -1819,74 +1822,59 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B89">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C89">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D89">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E89">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F89">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G89">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H89">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" t="s">
-        <v>6</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" t="s">
-        <v>8</v>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B92">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C92">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D92">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E92">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F92">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G92">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H92">
-        <v>1.1000000000000001</v>
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -1917,25 +1905,25 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C95">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D95">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E95">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F95">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G95">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H95">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -1966,25 +1954,25 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B98">
-        <v>1.1000000000000001</v>
+        <v>1593522111</v>
       </c>
       <c r="C98">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D98">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E98">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F98">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G98">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H98">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -2015,123 +2003,25 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101">
-        <v>1.1000000000000001</v>
+        <v>1593522011</v>
       </c>
       <c r="C101">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D101">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E101">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F101">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G101">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H101">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" t="s">
-        <v>6</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H103" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B104">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C104">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D104">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E104">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F104">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G104">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H104">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F106" t="s">
-        <v>6</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H106" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B107">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C107">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D107">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E107">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F107">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G107">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H107">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
